--- a/Data/Habitat_Quality_and_Geomorphic_Potential_Rating_Criteria.xlsx
+++ b/Data/Habitat_Quality_and_Geomorphic_Potential_Rating_Criteria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5B5AD3-2A13-458E-A542-D8E997631734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9A2196-8212-46A8-BB7E-EBA1700E54A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3528" yWindow="1080" windowWidth="16116" windowHeight="10116" xr2:uid="{DB26C65F-EA9F-4F0C-ADCD-2FA76DCAC294}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="21156" windowHeight="11412" xr2:uid="{DB26C65F-EA9F-4F0C-ADCD-2FA76DCAC294}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,15 +219,9 @@
     <t>Geomorphic Potential</t>
   </si>
   <si>
-    <t>&lt;30% unconfined</t>
-  </si>
-  <si>
     <t>Confined</t>
   </si>
   <si>
-    <t>30-60% unconfined</t>
-  </si>
-  <si>
     <t>Mixed</t>
   </si>
   <si>
@@ -235,6 +229,12 @@
   </si>
   <si>
     <t>Unconfined</t>
+  </si>
+  <si>
+    <t>&lt;0.5%</t>
+  </si>
+  <si>
+    <t>0.5%-60%</t>
   </si>
 </sst>
 </file>
@@ -641,9 +641,9 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1595,16 +1595,16 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1618,7 +1618,7 @@
         <v>0.1</v>
       </c>
       <c r="G27" s="3">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="3">
         <v>60</v>
@@ -1627,10 +1627,10 @@
         <v>5</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1653,10 +1653,10 @@
         <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Habitat_Quality_and_Geomorphic_Potential_Rating_Criteria.xlsx
+++ b/Data/Habitat_Quality_and_Geomorphic_Potential_Rating_Criteria.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9A2196-8212-46A8-BB7E-EBA1700E54A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373E5300-F0F8-4360-9B6A-070E59F58694}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="21156" windowHeight="11412" xr2:uid="{DB26C65F-EA9F-4F0C-ADCD-2FA76DCAC294}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="19428" windowHeight="9036" xr2:uid="{DB26C65F-EA9F-4F0C-ADCD-2FA76DCAC294}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="69">
   <si>
     <t>Habitat_Type</t>
   </si>
@@ -216,9 +219,6 @@
     <t>&gt;4 cfs</t>
   </si>
   <si>
-    <t>Geomorphic Potential</t>
-  </si>
-  <si>
     <t>Confined</t>
   </si>
   <si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>0.5%-60%</t>
+  </si>
+  <si>
+    <t>Geomorphic Potential (Confinement)</t>
+  </si>
+  <si>
+    <t>Confinement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USFS Valley Confinement Algorithm </t>
   </si>
 </sst>
 </file>
@@ -273,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +301,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -306,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -323,6 +338,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -640,10 +656,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9FED94-E706-4D30-A34B-0903E7C0B572}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,7 +1599,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>39</v>
@@ -1601,15 +1623,21 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
       </c>
       <c r="E27" t="s">
         <v>39</v>
@@ -1627,15 +1655,21 @@
         <v>5</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
       </c>
       <c r="E28" t="s">
         <v>39</v>
@@ -1653,13 +1687,14 @@
         <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{1E9C2260-2CB8-447D-8A92-7DAF23E0141C}"/>
   <hyperlinks>
     <hyperlink ref="L7" r:id="rId1" xr:uid="{2507E6E6-3B57-4499-BD80-145649B4E2CC}"/>
     <hyperlink ref="L8" r:id="rId2" xr:uid="{0E31C8E0-3733-4D4D-8C84-E6B3F33AA069}"/>

--- a/Data/Habitat_Quality_and_Geomorphic_Potential_Rating_Criteria.xlsx
+++ b/Data/Habitat_Quality_and_Geomorphic_Potential_Rating_Criteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373E5300-F0F8-4360-9B6A-070E59F58694}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D699DB2-4C33-439B-B972-28F9E2A7F67C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="19428" windowHeight="9036" xr2:uid="{DB26C65F-EA9F-4F0C-ADCD-2FA76DCAC294}"/>
+    <workbookView xWindow="6684" yWindow="2208" windowWidth="15960" windowHeight="11508" xr2:uid="{DB26C65F-EA9F-4F0C-ADCD-2FA76DCAC294}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="87">
   <si>
     <t>Habitat_Type</t>
   </si>
@@ -244,6 +244,60 @@
   </si>
   <si>
     <t xml:space="preserve">USFS Valley Confinement Algorithm </t>
+  </si>
+  <si>
+    <t>UCSRB_CanopyCoverPct</t>
+  </si>
+  <si>
+    <t>UCSRB_RiparianDisturbancePct</t>
+  </si>
+  <si>
+    <t>Canopy Cover</t>
+  </si>
+  <si>
+    <t>Riparian</t>
+  </si>
+  <si>
+    <t>Riparian- Canopy Cover</t>
+  </si>
+  <si>
+    <t>0-50% canopy cover</t>
+  </si>
+  <si>
+    <t>50-80% canopy cover</t>
+  </si>
+  <si>
+    <t>&gt;80% canopy cover</t>
+  </si>
+  <si>
+    <t>value is NA</t>
+  </si>
+  <si>
+    <t>if value is NA (no canopy cover value)</t>
+  </si>
+  <si>
+    <t>Disturbance (Riparian)</t>
+  </si>
+  <si>
+    <t>Riparian-Disturbance</t>
+  </si>
+  <si>
+    <t>&gt;50% of floodplain disturbed</t>
+  </si>
+  <si>
+    <t>20-50% of floodplain disturbed</t>
+  </si>
+  <si>
+    <t>&lt;20% of flooplain disturbed</t>
+  </si>
+  <si>
+    <t>if value is NA (no disturbance value)</t>
+  </si>
+  <si>
+    <t>UCSRB_OffChannel_Floodplain,UCSRB_OffChannel_SideChannels,UCSRB_ChannelStability,UCSRB_BankStability</t>
+  </si>
+  <si>
+    <t>Based on Floodplain analysis by Aspect Consulting and UCSRB (Greer)</t>
   </si>
 </sst>
 </file>
@@ -321,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -339,6 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -654,12 +709,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9FED94-E706-4D30-A34B-0903E7C0B572}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1282,7 +1337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1320,7 +1375,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1358,7 +1413,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1396,7 +1451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1434,7 +1489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1472,7 +1527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1510,7 +1565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>56</v>
       </c>
@@ -1539,7 +1594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>56</v>
       </c>
@@ -1568,7 +1623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>56</v>
       </c>
@@ -1597,7 +1652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1629,17 +1684,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="3">
@@ -1660,18 +1716,20 @@
       <c r="K27" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F28" s="3">
@@ -1692,6 +1750,525 @@
       <c r="K28" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>50</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="3">
+        <v>50</v>
+      </c>
+      <c r="G30" s="3">
+        <v>50</v>
+      </c>
+      <c r="H30" s="3">
+        <v>80</v>
+      </c>
+      <c r="I30" s="3">
+        <v>3</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="3">
+        <v>80</v>
+      </c>
+      <c r="G31" s="3">
+        <v>80</v>
+      </c>
+      <c r="H31" s="3">
+        <v>100</v>
+      </c>
+      <c r="I31" s="3">
+        <v>5</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="3">
+        <v>50</v>
+      </c>
+      <c r="G33" s="3">
+        <v>50</v>
+      </c>
+      <c r="H33" s="3">
+        <v>105</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="3">
+        <v>20</v>
+      </c>
+      <c r="G34" s="3">
+        <v>20</v>
+      </c>
+      <c r="H34" s="3">
+        <v>50</v>
+      </c>
+      <c r="I34" s="3">
+        <v>3</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>20</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="4">
+        <v>3</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="4">
+        <v>5</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{1E9C2260-2CB8-447D-8A92-7DAF23E0141C}"/>
@@ -1704,5 +2281,6 @@
     <hyperlink ref="L11" r:id="rId6" xr:uid="{D767822A-F8A7-413A-8CD2-C15D462D1BDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>